--- a/classification sites.xlsx
+++ b/classification sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddi/Documents/Pubpeer project/Pubpeer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C442E6B2-9658-DF4F-A84B-5559825DF1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFC73F1-611D-C944-94DC-54FE34FAA717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8380" yWindow="3600" windowWidth="28040" windowHeight="17440" xr2:uid="{365C0214-709C-2949-B610-08F956EAFA2D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>site</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Blogs</t>
+  </si>
+  <si>
+    <t>pubpeer</t>
   </si>
 </sst>
 </file>
@@ -461,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57518147-D65B-FB44-A069-8ED32821AAD9}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -539,15 +542,15 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -555,7 +558,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -563,7 +566,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -571,7 +574,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -579,15 +582,15 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -595,7 +598,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -603,15 +606,15 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -619,9 +622,17 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>24</v>
       </c>
     </row>

--- a/classification sites.xlsx
+++ b/classification sites.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddi/Documents/Pubpeer project/Pubpeer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFC73F1-611D-C944-94DC-54FE34FAA717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499629A4-44B8-3E4B-A1FA-3BDD1AB9E4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8380" yWindow="3600" windowWidth="28040" windowHeight="17440" xr2:uid="{365C0214-709C-2949-B610-08F956EAFA2D}"/>
+    <workbookView xWindow="45080" yWindow="8660" windowWidth="21600" windowHeight="17440" xr2:uid="{365C0214-709C-2949-B610-08F956EAFA2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="99">
   <si>
     <t>site</t>
   </si>
@@ -113,19 +114,251 @@
   </si>
   <si>
     <t>pubpeer</t>
+  </si>
+  <si>
+    <t>forbetterscience</t>
+  </si>
+  <si>
+    <t>lorelinerobbe</t>
+  </si>
+  <si>
+    <t>sciencetonnante</t>
+  </si>
+  <si>
+    <t>synthesis</t>
+  </si>
+  <si>
+    <t>microbiologybytes</t>
+  </si>
+  <si>
+    <t>bioethics</t>
+  </si>
+  <si>
+    <t>activist</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>Pubpeer</t>
+  </si>
+  <si>
+    <t>doi</t>
+  </si>
+  <si>
+    <t>doi.org</t>
+  </si>
+  <si>
+    <t>scitation</t>
+  </si>
+  <si>
+    <t>sciencedirect</t>
+  </si>
+  <si>
+    <t>nature</t>
+  </si>
+  <si>
+    <t>wikipedia</t>
+  </si>
+  <si>
+    <t>reuters</t>
+  </si>
+  <si>
+    <t>Magazine-presse</t>
+  </si>
+  <si>
+    <t>springer</t>
+  </si>
+  <si>
+    <t>wiley</t>
+  </si>
+  <si>
+    <t>elsevier</t>
+  </si>
+  <si>
+    <t>Elsevier</t>
+  </si>
+  <si>
+    <t>Wiley</t>
+  </si>
+  <si>
+    <t>Nature</t>
+  </si>
+  <si>
+    <t>Wikipedia</t>
+  </si>
+  <si>
+    <t>Springer</t>
+  </si>
+  <si>
+    <t>Sciencedirect</t>
+  </si>
+  <si>
+    <t>plos</t>
+  </si>
+  <si>
+    <t>Plos</t>
+  </si>
+  <si>
+    <t>frontiersin</t>
+  </si>
+  <si>
+    <t>Frontier</t>
+  </si>
+  <si>
+    <t>.oup</t>
+  </si>
+  <si>
+    <t>Oxford Academic</t>
+  </si>
+  <si>
+    <t>zenodo</t>
+  </si>
+  <si>
+    <t>Zenodo</t>
+  </si>
+  <si>
+    <t>medrxiv</t>
+  </si>
+  <si>
+    <t>Medrxiv</t>
+  </si>
+  <si>
+    <t>biorxiv</t>
+  </si>
+  <si>
+    <t>Biorxiv</t>
+  </si>
+  <si>
+    <t>arxiv</t>
+  </si>
+  <si>
+    <t>Arxiv</t>
+  </si>
+  <si>
+    <t>sciphysicsforums</t>
+  </si>
+  <si>
+    <t>rpubs</t>
+  </si>
+  <si>
+    <t>github</t>
+  </si>
+  <si>
+    <t>script</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>integrit</t>
+  </si>
+  <si>
+    <t>www.jbc.org</t>
+  </si>
+  <si>
+    <t>J Bio Chim</t>
+  </si>
+  <si>
+    <t>docs</t>
+  </si>
+  <si>
+    <t>Google docs</t>
+  </si>
+  <si>
+    <t>i.imgur.com</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>cancerres.aacrjournals.org</t>
+  </si>
+  <si>
+    <t>J Cancer Reserch</t>
+  </si>
+  <si>
+    <t>www.cell.com</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>tandfo</t>
+  </si>
+  <si>
+    <t>Taylor and Francis</t>
+  </si>
+  <si>
+    <t>web.archive.org</t>
+  </si>
+  <si>
+    <t>Web archive</t>
+  </si>
+  <si>
+    <t>Pnas</t>
+  </si>
+  <si>
+    <t>pnas</t>
+  </si>
+  <si>
+    <t>Molec. Cell Bio</t>
+  </si>
+  <si>
+    <t>mcb.asm.org</t>
+  </si>
+  <si>
+    <t>publicationethics</t>
+  </si>
+  <si>
+    <t>Publication ethics</t>
+  </si>
+  <si>
+    <t>scholarlyoa</t>
+  </si>
+  <si>
+    <t>Scholarlyoa</t>
+  </si>
+  <si>
+    <t>raphazlab</t>
+  </si>
+  <si>
+    <t>Raphazlab</t>
+  </si>
+  <si>
+    <t>mythsofvisionscience</t>
+  </si>
+  <si>
+    <t>Myths of vision science</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -148,8 +381,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,19 +699,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57518147-D65B-FB44-A069-8ED32821AAD9}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,7 +719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -492,7 +727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -500,7 +735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -508,7 +743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -516,7 +751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -524,7 +759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -532,7 +767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -540,100 +775,978 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>97</v>
+      </c>
+      <c r="B63" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33556F44-B8F1-A24A-9975-755EBAD05416}">
+  <dimension ref="A1:B63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
       <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B23" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>97</v>
+      </c>
+      <c r="B63" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/classification sites.xlsx
+++ b/classification sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddi/Documents/Pubpeer project/Pubpeer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499629A4-44B8-3E4B-A1FA-3BDD1AB9E4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE14909-3A93-C942-A519-FB0F4723615F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45080" yWindow="8660" windowWidth="21600" windowHeight="17440" xr2:uid="{365C0214-709C-2949-B610-08F956EAFA2D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -702,7 +702,7 @@
   <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/classification sites.xlsx
+++ b/classification sites.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddi/Documents/Pubpeer project/Pubpeer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE132A0-0CBC-314C-B06C-C64CCEA7D064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A49376-25A7-CB46-9A02-A63AF78E735A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44820" yWindow="10080" windowWidth="21600" windowHeight="19580" xr2:uid="{365C0214-709C-2949-B610-08F956EAFA2D}"/>
+    <workbookView xWindow="44800" yWindow="10080" windowWidth="21600" windowHeight="19580" xr2:uid="{365C0214-709C-2949-B610-08F956EAFA2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$D$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$D$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="139">
   <si>
     <t>site</t>
   </si>
@@ -384,6 +384,78 @@
   </si>
   <si>
     <t>irit</t>
+  </si>
+  <si>
+    <t>academicintegrity.rutgers.edu</t>
+  </si>
+  <si>
+    <t>wwwncbinlmnihgov.ezproxy.library.tamu.edu</t>
+  </si>
+  <si>
+    <t>shenglin.blog.nctu.edu.tw</t>
+  </si>
+  <si>
+    <t>news.northwestern.edu</t>
+  </si>
+  <si>
+    <t>www.news.pitt.edu</t>
+  </si>
+  <si>
+    <t>news.iu.edu</t>
+  </si>
+  <si>
+    <t>munewsarchives.missouri.edu</t>
+  </si>
+  <si>
+    <t>newsoffice.mit.edu</t>
+  </si>
+  <si>
+    <t>newsroom.unsw.edu.au</t>
+  </si>
+  <si>
+    <t>news.osu.edu</t>
+  </si>
+  <si>
+    <t>news.stanford.edu</t>
+  </si>
+  <si>
+    <t>mirkingroup.northwestern.edu</t>
+  </si>
+  <si>
+    <t>mothphotographersgroup.msstate.edu</t>
+  </si>
+  <si>
+    <t>www.academia.edu</t>
+  </si>
+  <si>
+    <t>libertesphilosophica.academia.edu</t>
+  </si>
+  <si>
+    <t>internationaleducation.gov.au</t>
+  </si>
+  <si>
+    <t>forbetterscience.wordpress.com</t>
+  </si>
+  <si>
+    <t>forbetterscience.files.wordpress.com</t>
+  </si>
+  <si>
+    <t>forbetterscience.wordpress.comhttps</t>
+  </si>
+  <si>
+    <t>JBC</t>
+  </si>
+  <si>
+    <t>www.doiserbia.nb.rs</t>
+  </si>
+  <si>
+    <t>doiserbia</t>
+  </si>
+  <si>
+    <t>www.actahort.org</t>
+  </si>
+  <si>
+    <t>Actahort</t>
   </si>
 </sst>
 </file>
@@ -742,15 +814,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57518147-D65B-FB44-A069-8ED32821AAD9}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -855,113 +927,336 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>91</v>
+        <v>131</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A31" r:id="rId1" xr:uid="{F65AFA90-3EA2-5A4F-B463-502FBA4E222B}"/>
+    <hyperlink ref="A37" r:id="rId2" xr:uid="{3AC78243-34C2-9B4D-BB74-0624E82519B1}"/>
+    <hyperlink ref="A38" r:id="rId3" xr:uid="{89F92FDE-D5E4-3345-AF9F-77C73F995679}"/>
+    <hyperlink ref="B38" r:id="rId4" xr:uid="{7EBB8FB2-A43B-724D-9521-FD4CA161E1E7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/classification sites.xlsx
+++ b/classification sites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddi/Documents/Pubpeer project/Pubpeer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6181A6-27BF-3B42-BF2A-ECC6DAF8E36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BDD761-9212-B844-8DB0-726A8CE5A50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44800" yWindow="10080" windowWidth="21600" windowHeight="19580" xr2:uid="{365C0214-709C-2949-B610-08F956EAFA2D}"/>
+    <workbookView xWindow="44800" yWindow="8580" windowWidth="21600" windowHeight="21080" xr2:uid="{365C0214-709C-2949-B610-08F956EAFA2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="62">
   <si>
     <t>site</t>
   </si>
@@ -207,6 +207,24 @@
   </si>
   <si>
     <t>DOI.org</t>
+  </si>
+  <si>
+    <t>retractionwatch.com</t>
+  </si>
+  <si>
+    <t>retractionwatch.wordpress.com</t>
+  </si>
+  <si>
+    <t>retractionwatch.files.wordpress.com</t>
+  </si>
+  <si>
+    <t>www.retractionwatch.com</t>
+  </si>
+  <si>
+    <t>retractionwatch.comhttp</t>
+  </si>
+  <si>
+    <t>retractionwatch</t>
   </si>
 </sst>
 </file>
@@ -573,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57518147-D65B-FB44-A069-8ED32821AAD9}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -817,10 +835,59 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/classification sites.xlsx
+++ b/classification sites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddi/Documents/Pubpeer project/Pubpeer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BDD761-9212-B844-8DB0-726A8CE5A50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB9E7AB-113A-4F4F-91E8-D725DC3BEE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44800" yWindow="8580" windowWidth="21600" windowHeight="21080" xr2:uid="{365C0214-709C-2949-B610-08F956EAFA2D}"/>
+    <workbookView xWindow="44800" yWindow="15200" windowWidth="21600" windowHeight="14460" xr2:uid="{365C0214-709C-2949-B610-08F956EAFA2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57518147-D65B-FB44-A069-8ED32821AAD9}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/classification sites.xlsx
+++ b/classification sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddi/Documents/Pubpeer project/Pubpeer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB9E7AB-113A-4F4F-91E8-D725DC3BEE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7B96E9-D119-AE40-BAE5-3F4265668858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44800" yWindow="15200" windowWidth="21600" windowHeight="14460" xr2:uid="{365C0214-709C-2949-B610-08F956EAFA2D}"/>
   </bookViews>
@@ -231,7 +231,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -248,6 +248,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -270,15 +278,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -593,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57518147-D65B-FB44-A069-8ED32821AAD9}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -827,7 +838,7 @@
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C21" t="s">
